--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gip-Gipr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gip-Gipr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Gip</t>
   </si>
   <si>
     <t>Gipr</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.132565</v>
+        <v>0.2440396666666667</v>
       </c>
       <c r="H2">
-        <v>0.397695</v>
+        <v>0.732119</v>
       </c>
       <c r="I2">
-        <v>0.1797272197291178</v>
+        <v>0.2302127077512786</v>
       </c>
       <c r="J2">
-        <v>0.1797272197291178</v>
+        <v>0.2302127077512786</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2643766666666666</v>
+        <v>0.016902</v>
       </c>
       <c r="N2">
-        <v>0.79313</v>
+        <v>0.050706</v>
       </c>
       <c r="O2">
-        <v>0.4845139771283354</v>
+        <v>0.04203808348919575</v>
       </c>
       <c r="P2">
-        <v>0.4845139771283354</v>
+        <v>0.04203808348919574</v>
       </c>
       <c r="Q2">
-        <v>0.03504709281666666</v>
+        <v>0.004124758446</v>
       </c>
       <c r="R2">
-        <v>0.31542383535</v>
+        <v>0.037122826014</v>
       </c>
       <c r="S2">
-        <v>0.0870803500291731</v>
+        <v>0.009677701028722072</v>
       </c>
       <c r="T2">
-        <v>0.0870803500291731</v>
+        <v>0.009677701028722068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.132565</v>
+        <v>0.2440396666666667</v>
       </c>
       <c r="H3">
-        <v>0.397695</v>
+        <v>0.732119</v>
       </c>
       <c r="I3">
-        <v>0.1797272197291178</v>
+        <v>0.2302127077512786</v>
       </c>
       <c r="J3">
-        <v>0.1797272197291178</v>
+        <v>0.2302127077512786</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.65044</v>
       </c>
       <c r="O3">
-        <v>0.3973463004593881</v>
+        <v>0.5392507992094128</v>
       </c>
       <c r="P3">
-        <v>0.3973463004593882</v>
+        <v>0.5392507992094127</v>
       </c>
       <c r="Q3">
-        <v>0.02874185953333333</v>
+        <v>0.05291105359555555</v>
       </c>
       <c r="R3">
-        <v>0.2586767358</v>
+        <v>0.47619948236</v>
       </c>
       <c r="S3">
-        <v>0.07141394585121651</v>
+        <v>0.12414238664304</v>
       </c>
       <c r="T3">
-        <v>0.07141394585121652</v>
+        <v>0.1241423866430399</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,14 +643,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
@@ -658,46 +658,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.132565</v>
+        <v>0.2440396666666667</v>
       </c>
       <c r="H4">
-        <v>0.397695</v>
+        <v>0.732119</v>
       </c>
       <c r="I4">
-        <v>0.1797272197291178</v>
+        <v>0.2302127077512786</v>
       </c>
       <c r="J4">
-        <v>0.1797272197291178</v>
+        <v>0.2302127077512786</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.06446333333333333</v>
+        <v>0.1683486666666667</v>
       </c>
       <c r="N4">
-        <v>0.19339</v>
+        <v>0.505046</v>
       </c>
       <c r="O4">
-        <v>0.1181397224122764</v>
+        <v>0.4187111173013915</v>
       </c>
       <c r="P4">
-        <v>0.1181397224122764</v>
+        <v>0.4187111173013914</v>
       </c>
       <c r="Q4">
-        <v>0.008545581783333332</v>
+        <v>0.04108375249711111</v>
       </c>
       <c r="R4">
-        <v>0.07691023605</v>
+        <v>0.369753772474</v>
       </c>
       <c r="S4">
-        <v>0.02123292384872818</v>
+        <v>0.09639262007951659</v>
       </c>
       <c r="T4">
-        <v>0.02123292384872819</v>
+        <v>0.09639262007951656</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +705,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -726,40 +726,40 @@
         <v>1.815075</v>
       </c>
       <c r="I5">
-        <v>0.8202727802708822</v>
+        <v>0.5707450981625283</v>
       </c>
       <c r="J5">
-        <v>0.8202727802708822</v>
+        <v>0.5707450981625283</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2643766666666666</v>
+        <v>0.016902</v>
       </c>
       <c r="N5">
-        <v>0.79313</v>
+        <v>0.050706</v>
       </c>
       <c r="O5">
-        <v>0.4845139771283354</v>
+        <v>0.04203808348919575</v>
       </c>
       <c r="P5">
-        <v>0.4845139771283354</v>
+        <v>0.04203808348919574</v>
       </c>
       <c r="Q5">
-        <v>0.15995449275</v>
+        <v>0.01022613255</v>
       </c>
       <c r="R5">
-        <v>1.43959043475</v>
+        <v>0.09203519295</v>
       </c>
       <c r="S5">
-        <v>0.3974336270991624</v>
+        <v>0.02399303008760559</v>
       </c>
       <c r="T5">
-        <v>0.3974336270991624</v>
+        <v>0.02399303008760558</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +767,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -788,10 +788,10 @@
         <v>1.815075</v>
       </c>
       <c r="I6">
-        <v>0.8202727802708822</v>
+        <v>0.5707450981625283</v>
       </c>
       <c r="J6">
-        <v>0.8202727802708822</v>
+        <v>0.5707450981625283</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.65044</v>
       </c>
       <c r="O6">
-        <v>0.3973463004593881</v>
+        <v>0.5392507992094128</v>
       </c>
       <c r="P6">
-        <v>0.3973463004593882</v>
+        <v>0.5392507992094127</v>
       </c>
       <c r="Q6">
         <v>0.131177487</v>
@@ -818,10 +818,10 @@
         <v>1.180597383</v>
       </c>
       <c r="S6">
-        <v>0.3259323546081716</v>
+        <v>0.3077747503289981</v>
       </c>
       <c r="T6">
-        <v>0.3259323546081717</v>
+        <v>0.307774750328998</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,40 +850,226 @@
         <v>1.815075</v>
       </c>
       <c r="I7">
-        <v>0.8202727802708822</v>
+        <v>0.5707450981625283</v>
       </c>
       <c r="J7">
-        <v>0.8202727802708822</v>
+        <v>0.5707450981625283</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.06446333333333333</v>
+        <v>0.1683486666666667</v>
       </c>
       <c r="N7">
-        <v>0.19339</v>
+        <v>0.505046</v>
       </c>
       <c r="O7">
-        <v>0.1181397224122764</v>
+        <v>0.4187111173013915</v>
       </c>
       <c r="P7">
-        <v>0.1181397224122764</v>
+        <v>0.4187111173013914</v>
       </c>
       <c r="Q7">
-        <v>0.03900192825</v>
+        <v>0.10185515205</v>
       </c>
       <c r="R7">
-        <v>0.35101735425</v>
+        <v>0.91669636845</v>
       </c>
       <c r="S7">
-        <v>0.09690679856354822</v>
+        <v>0.2389773177459246</v>
       </c>
       <c r="T7">
-        <v>0.09690679856354824</v>
+        <v>0.2389773177459245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.210997</v>
+      </c>
+      <c r="H8">
+        <v>0.632991</v>
+      </c>
+      <c r="I8">
+        <v>0.1990421940861931</v>
+      </c>
+      <c r="J8">
+        <v>0.1990421940861931</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.016902</v>
+      </c>
+      <c r="N8">
+        <v>0.050706</v>
+      </c>
+      <c r="O8">
+        <v>0.04203808348919575</v>
+      </c>
+      <c r="P8">
+        <v>0.04203808348919574</v>
+      </c>
+      <c r="Q8">
+        <v>0.003566271294</v>
+      </c>
+      <c r="R8">
+        <v>0.032096441646</v>
+      </c>
+      <c r="S8">
+        <v>0.00836735237286809</v>
+      </c>
+      <c r="T8">
+        <v>0.008367352372868089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.210997</v>
+      </c>
+      <c r="H9">
+        <v>0.632991</v>
+      </c>
+      <c r="I9">
+        <v>0.1990421940861931</v>
+      </c>
+      <c r="J9">
+        <v>0.1990421940861931</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.2168133333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.65044</v>
+      </c>
+      <c r="O9">
+        <v>0.5392507992094128</v>
+      </c>
+      <c r="P9">
+        <v>0.5392507992094127</v>
+      </c>
+      <c r="Q9">
+        <v>0.04574696289333333</v>
+      </c>
+      <c r="R9">
+        <v>0.41172266604</v>
+      </c>
+      <c r="S9">
+        <v>0.1073336622373747</v>
+      </c>
+      <c r="T9">
+        <v>0.1073336622373747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.210997</v>
+      </c>
+      <c r="H10">
+        <v>0.632991</v>
+      </c>
+      <c r="I10">
+        <v>0.1990421940861931</v>
+      </c>
+      <c r="J10">
+        <v>0.1990421940861931</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1683486666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.505046</v>
+      </c>
+      <c r="O10">
+        <v>0.4187111173013915</v>
+      </c>
+      <c r="P10">
+        <v>0.4187111173013914</v>
+      </c>
+      <c r="Q10">
+        <v>0.03552106362066667</v>
+      </c>
+      <c r="R10">
+        <v>0.319689572586</v>
+      </c>
+      <c r="S10">
+        <v>0.08334117947595034</v>
+      </c>
+      <c r="T10">
+        <v>0.08334117947595031</v>
       </c>
     </row>
   </sheetData>
